--- a/metadata/GBS.xlsx
+++ b/metadata/GBS.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veronicareyesgalindo/Documents/GitHub/Infraespecific_Variation/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{37FC741B-3A33-5145-B79D-5973E744987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E110EDF5-C353-0946-82B2-6887B6B36FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="0" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GBS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBS!$A$1:$J$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="3281" uniqueCount="1014">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="3281" uniqueCount="1015">
   <si>
     <t>Plate_Number</t>
   </si>
@@ -2863,9 +2866,6 @@
     <t>PP1</t>
   </si>
   <si>
-    <t>PP1_NNAP01</t>
-  </si>
-  <si>
     <t>potential_mother</t>
   </si>
   <si>
@@ -2875,9 +2875,6 @@
     <t>PP2</t>
   </si>
   <si>
-    <t>PP2_NNAP01</t>
-  </si>
-  <si>
     <t>PP3_NNAP01</t>
   </si>
   <si>
@@ -2890,27 +2887,18 @@
     <t>PP4</t>
   </si>
   <si>
-    <t>PP4_NNAP01</t>
-  </si>
-  <si>
     <t>PP4r_NNAP1</t>
   </si>
   <si>
     <t>PP4r</t>
   </si>
   <si>
-    <t>PP4r_NNAP01</t>
-  </si>
-  <si>
     <t>PP5_NNAP1</t>
   </si>
   <si>
     <t>PP5</t>
   </si>
   <si>
-    <t>PP5_NNAP01</t>
-  </si>
-  <si>
     <t>T14_NNAPNA</t>
   </si>
   <si>
@@ -2935,9 +2923,6 @@
     <t>VD01</t>
   </si>
   <si>
-    <t>VD01_NNAPNA</t>
-  </si>
-  <si>
     <t>symptomatic_transcriptomic</t>
   </si>
   <si>
@@ -2947,72 +2932,48 @@
     <t>VD02</t>
   </si>
   <si>
-    <t>VD02_NNAPNA</t>
-  </si>
-  <si>
     <t>VD03_1516</t>
   </si>
   <si>
     <t>VD03</t>
   </si>
   <si>
-    <t>VD03_NNAPNA</t>
-  </si>
-  <si>
     <t>VD04_1516</t>
   </si>
   <si>
     <t>VD04</t>
   </si>
   <si>
-    <t>VD04_NNAPNA</t>
-  </si>
-  <si>
     <t>VD05_1516</t>
   </si>
   <si>
     <t>VD05</t>
   </si>
   <si>
-    <t>VD05_NNAPNA</t>
-  </si>
-  <si>
     <t>VD2_NNAPNA</t>
   </si>
   <si>
     <t>VD02r</t>
   </si>
   <si>
-    <t>VD2r_NNAPNA</t>
-  </si>
-  <si>
     <t>VD3_NNAPNA</t>
   </si>
   <si>
     <t>VD03r</t>
   </si>
   <si>
-    <t>VD3r_NNAPNA</t>
-  </si>
-  <si>
     <t>VD4_NNAPNA</t>
   </si>
   <si>
     <t>VD04r</t>
   </si>
   <si>
-    <t>VD4r_NNAPNA</t>
-  </si>
-  <si>
     <t>VS01_1516</t>
   </si>
   <si>
     <t>VS01</t>
   </si>
   <si>
-    <t>VS01_NNAPNA</t>
-  </si>
-  <si>
     <t>assyntomatic_transcriptomic</t>
   </si>
   <si>
@@ -3022,45 +2983,30 @@
     <t>VS02</t>
   </si>
   <si>
-    <t>VS02_NNAPNA</t>
-  </si>
-  <si>
     <t>VS03_1516</t>
   </si>
   <si>
     <t>VS03</t>
   </si>
   <si>
-    <t>VS03_NNAPNA</t>
-  </si>
-  <si>
     <t>VS04_1516</t>
   </si>
   <si>
     <t>VS04</t>
   </si>
   <si>
-    <t>VS04_NNAPNA</t>
-  </si>
-  <si>
     <t>VS05_1516</t>
   </si>
   <si>
     <t>VS05</t>
   </si>
   <si>
-    <t>VS05_NNAPNA</t>
-  </si>
-  <si>
     <t>VS4_NNAPNA</t>
   </si>
   <si>
     <t>VS04r</t>
   </si>
   <si>
-    <t>VS4r_NNAPNA</t>
-  </si>
-  <si>
     <t>tree_id</t>
   </si>
   <si>
@@ -3077,6 +3023,66 @@
   </si>
   <si>
     <t>ID_sample_correct</t>
+  </si>
+  <si>
+    <t>PP01_NNAP01</t>
+  </si>
+  <si>
+    <t>PP02_NNAP01</t>
+  </si>
+  <si>
+    <t>PP03_NNAP01</t>
+  </si>
+  <si>
+    <t>PP04_NNAP01</t>
+  </si>
+  <si>
+    <t>PP04r_NNAP01</t>
+  </si>
+  <si>
+    <t>PP05_NNAP01</t>
+  </si>
+  <si>
+    <t>VD01_transcriptomic</t>
+  </si>
+  <si>
+    <t>VD02_transcriptomic</t>
+  </si>
+  <si>
+    <t>VD03_transcriptomic</t>
+  </si>
+  <si>
+    <t>VD04_transcriptomic</t>
+  </si>
+  <si>
+    <t>VD05_transcriptomic</t>
+  </si>
+  <si>
+    <t>VD2r_transcriptomic</t>
+  </si>
+  <si>
+    <t>VD3r_transcriptomic</t>
+  </si>
+  <si>
+    <t>VD4r_transcriptomic</t>
+  </si>
+  <si>
+    <t>VS01_transcriptomic</t>
+  </si>
+  <si>
+    <t>VS02_transcriptomic</t>
+  </si>
+  <si>
+    <t>VS03_transcriptomic</t>
+  </si>
+  <si>
+    <t>VS04_transcriptomic</t>
+  </si>
+  <si>
+    <t>VS05_transcriptomic</t>
+  </si>
+  <si>
+    <t>VS4r_transcriptomic</t>
   </si>
 </sst>
 </file>
@@ -3919,8 +3925,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C327" sqref="C327"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I386" sqref="I386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3945,19 +3951,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1012</v>
+        <v>993</v>
       </c>
       <c r="F1" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="G1" t="s">
-        <v>1011</v>
+        <v>992</v>
       </c>
       <c r="H1" t="s">
-        <v>1010</v>
+        <v>991</v>
       </c>
       <c r="I1" t="s">
-        <v>1013</v>
+        <v>994</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -9653,7 +9659,7 @@
         <v>27</v>
       </c>
       <c r="I179" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="J179" t="s">
         <v>12</v>
@@ -15573,10 +15579,10 @@
         <v>1</v>
       </c>
       <c r="I364" t="s">
+        <v>995</v>
+      </c>
+      <c r="J364" t="s">
         <v>942</v>
-      </c>
-      <c r="J364" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
@@ -15587,7 +15593,7 @@
         <v>352</v>
       </c>
       <c r="C365" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D365" t="s">
         <v>8</v>
@@ -15596,7 +15602,7 @@
         <v>122</v>
       </c>
       <c r="F365" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G365" t="s">
         <v>53</v>
@@ -15605,10 +15611,10 @@
         <v>1</v>
       </c>
       <c r="I365" t="s">
-        <v>946</v>
+        <v>996</v>
       </c>
       <c r="J365" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
@@ -15619,7 +15625,7 @@
         <v>110</v>
       </c>
       <c r="C366" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D366" t="s">
         <v>8</v>
@@ -15628,7 +15634,7 @@
         <v>122</v>
       </c>
       <c r="F366" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G366" t="s">
         <v>53</v>
@@ -15637,10 +15643,10 @@
         <v>1</v>
       </c>
       <c r="I366" t="s">
-        <v>947</v>
+        <v>997</v>
       </c>
       <c r="J366" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
@@ -15651,7 +15657,7 @@
         <v>264</v>
       </c>
       <c r="C367" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D367" t="s">
         <v>8</v>
@@ -15660,7 +15666,7 @@
         <v>122</v>
       </c>
       <c r="F367" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G367" t="s">
         <v>53</v>
@@ -15669,10 +15675,10 @@
         <v>1</v>
       </c>
       <c r="I367" t="s">
-        <v>951</v>
+        <v>998</v>
       </c>
       <c r="J367" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
@@ -15683,7 +15689,7 @@
         <v>337</v>
       </c>
       <c r="C368" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D368" t="s">
         <v>8</v>
@@ -15692,7 +15698,7 @@
         <v>122</v>
       </c>
       <c r="F368" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G368" t="s">
         <v>53</v>
@@ -15701,10 +15707,10 @@
         <v>1</v>
       </c>
       <c r="I368" t="s">
-        <v>954</v>
+        <v>999</v>
       </c>
       <c r="J368" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
@@ -15715,7 +15721,7 @@
         <v>16</v>
       </c>
       <c r="C369" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D369" t="s">
         <v>8</v>
@@ -15724,7 +15730,7 @@
         <v>122</v>
       </c>
       <c r="F369" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G369" t="s">
         <v>53</v>
@@ -15733,10 +15739,10 @@
         <v>1</v>
       </c>
       <c r="I369" t="s">
-        <v>957</v>
+        <v>1000</v>
       </c>
       <c r="J369" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
@@ -15747,16 +15753,16 @@
         <v>224</v>
       </c>
       <c r="C370" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D370" t="s">
         <v>8</v>
       </c>
       <c r="E370" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F370" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G370" t="s">
         <v>53</v>
@@ -15765,10 +15771,10 @@
         <v>53</v>
       </c>
       <c r="I370" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="J370" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
@@ -15779,16 +15785,16 @@
         <v>86</v>
       </c>
       <c r="C371" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D371" t="s">
         <v>8</v>
       </c>
       <c r="E371" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F371" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G371" t="s">
         <v>53</v>
@@ -15797,10 +15803,10 @@
         <v>53</v>
       </c>
       <c r="I371" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="J371" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
@@ -15811,16 +15817,16 @@
         <v>380</v>
       </c>
       <c r="C372" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="D372" t="s">
         <v>8</v>
       </c>
       <c r="E372" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F372" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G372" t="s">
         <v>53</v>
@@ -15829,10 +15835,10 @@
         <v>53</v>
       </c>
       <c r="I372" t="s">
-        <v>966</v>
+        <v>1001</v>
       </c>
       <c r="J372" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
@@ -15843,16 +15849,16 @@
         <v>6</v>
       </c>
       <c r="C373" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="D373" t="s">
         <v>8</v>
       </c>
       <c r="E373" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F373" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="G373" t="s">
         <v>53</v>
@@ -15861,10 +15867,10 @@
         <v>53</v>
       </c>
       <c r="I373" t="s">
-        <v>970</v>
+        <v>1002</v>
       </c>
       <c r="J373" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
@@ -15875,16 +15881,16 @@
         <v>264</v>
       </c>
       <c r="C374" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="D374" t="s">
         <v>8</v>
       </c>
       <c r="E374" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F374" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="G374" t="s">
         <v>53</v>
@@ -15893,10 +15899,10 @@
         <v>53</v>
       </c>
       <c r="I374" t="s">
-        <v>973</v>
+        <v>1003</v>
       </c>
       <c r="J374" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
@@ -15907,16 +15913,16 @@
         <v>204</v>
       </c>
       <c r="C375" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="D375" t="s">
         <v>8</v>
       </c>
       <c r="E375" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F375" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="G375" t="s">
         <v>53</v>
@@ -15925,10 +15931,10 @@
         <v>53</v>
       </c>
       <c r="I375" t="s">
-        <v>976</v>
+        <v>1004</v>
       </c>
       <c r="J375" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
@@ -15939,16 +15945,16 @@
         <v>260</v>
       </c>
       <c r="C376" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="D376" t="s">
         <v>8</v>
       </c>
       <c r="E376" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F376" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="G376" t="s">
         <v>53</v>
@@ -15957,10 +15963,10 @@
         <v>53</v>
       </c>
       <c r="I376" t="s">
-        <v>979</v>
+        <v>1005</v>
       </c>
       <c r="J376" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
@@ -15971,16 +15977,16 @@
         <v>110</v>
       </c>
       <c r="C377" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="D377" t="s">
         <v>8</v>
       </c>
       <c r="E377" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F377" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="G377" t="s">
         <v>53</v>
@@ -15989,10 +15995,10 @@
         <v>53</v>
       </c>
       <c r="I377" t="s">
-        <v>982</v>
+        <v>1006</v>
       </c>
       <c r="J377" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
@@ -16003,16 +16009,16 @@
         <v>180</v>
       </c>
       <c r="C378" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="D378" t="s">
         <v>8</v>
       </c>
       <c r="E378" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F378" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="G378" t="s">
         <v>53</v>
@@ -16021,10 +16027,10 @@
         <v>53</v>
       </c>
       <c r="I378" t="s">
-        <v>985</v>
+        <v>1007</v>
       </c>
       <c r="J378" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
@@ -16035,16 +16041,16 @@
         <v>173</v>
       </c>
       <c r="C379" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="D379" t="s">
         <v>8</v>
       </c>
       <c r="E379" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F379" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="G379" t="s">
         <v>53</v>
@@ -16053,10 +16059,10 @@
         <v>53</v>
       </c>
       <c r="I379" t="s">
-        <v>988</v>
+        <v>1008</v>
       </c>
       <c r="J379" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
@@ -16067,16 +16073,16 @@
         <v>224</v>
       </c>
       <c r="C380" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="D380" t="s">
         <v>8</v>
       </c>
       <c r="E380" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F380" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="G380" t="s">
         <v>53</v>
@@ -16085,10 +16091,10 @@
         <v>53</v>
       </c>
       <c r="I380" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="J380" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
@@ -16099,16 +16105,16 @@
         <v>486</v>
       </c>
       <c r="C381" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="D381" t="s">
         <v>8</v>
       </c>
       <c r="E381" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F381" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="G381" t="s">
         <v>53</v>
@@ -16117,10 +16123,10 @@
         <v>53</v>
       </c>
       <c r="I381" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="J381" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
@@ -16131,16 +16137,16 @@
         <v>343</v>
       </c>
       <c r="C382" t="s">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="D382" t="s">
         <v>8</v>
       </c>
       <c r="E382" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F382" t="s">
-        <v>997</v>
+        <v>982</v>
       </c>
       <c r="G382" t="s">
         <v>53</v>
@@ -16149,10 +16155,10 @@
         <v>53</v>
       </c>
       <c r="I382" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
       <c r="J382" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
@@ -16163,16 +16169,16 @@
         <v>555</v>
       </c>
       <c r="C383" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="D383" t="s">
         <v>8</v>
       </c>
       <c r="E383" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F383" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="G383" t="s">
         <v>53</v>
@@ -16181,10 +16187,10 @@
         <v>53</v>
       </c>
       <c r="I383" t="s">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="J383" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
@@ -16195,16 +16201,16 @@
         <v>524</v>
       </c>
       <c r="C384" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="D384" t="s">
         <v>8</v>
       </c>
       <c r="E384" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F384" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="G384" t="s">
         <v>53</v>
@@ -16213,10 +16219,10 @@
         <v>53</v>
       </c>
       <c r="I384" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="J384" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.2">
@@ -16227,16 +16233,16 @@
         <v>149</v>
       </c>
       <c r="C385" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
       <c r="D385" t="s">
         <v>8</v>
       </c>
       <c r="E385" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F385" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
       <c r="G385" t="s">
         <v>53</v>
@@ -16245,13 +16251,18 @@
         <v>53</v>
       </c>
       <c r="I385" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="J385" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J385">
+      <sortCondition ref="I1:I385"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>